--- a/inst/extdata/report/_Captions_SiteX.xlsx
+++ b/inst/extdata/report/_Captions_SiteX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik.Leppo\OneDrive - Tetra Tech, Inc\MyDocs_OneDrive\GitHub\ContDataSumViz\inst\extdata\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ERIK~1.LEP\AppData\Local\Temp\RtmpKILz9O\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D1642D-18E5-4E91-84F0-B35B7FB88783}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC754F8-DFCB-424E-B590-CC29FAAEE1C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="2535" windowWidth="21600" windowHeight="11385" xr2:uid="{99FCA58F-00AC-41CF-8610-EA7106249009}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{99FCA58F-00AC-41CF-8610-EA7106249009}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="40">
   <si>
     <t>Type</t>
   </si>
@@ -144,13 +144,16 @@
     <t xml:space="preserve">Example text from Excel added as Type == "text". </t>
   </si>
   <si>
-    <t xml:space="preserve"> Could use this block to describe the following tables and figures.</t>
-  </si>
-  <si>
     <t>Each line of text in Excel is a new paragraph in the summary report.</t>
   </si>
   <si>
     <t>Each figure and table has a caption defined in Excel.</t>
+  </si>
+  <si>
+    <t>Could use this block to describe the following tables and figures.</t>
+  </si>
+  <si>
+    <t>URLs can be entered as plain text (e.g., www.google.com) but will not be clickable.  If you want a clickable URL then need to use Markdown syntax; site in square brackets followed by site url in parenthesis. For example, [ Google] ( www.google.com )  entered without spaces becomes  [Google](www.google.com).</t>
   </si>
 </sst>
 </file>
@@ -580,11 +583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A759C209-37DB-4186-B95F-B26875021894}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:B8"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +662,7 @@
         <v>32</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,7 +673,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -681,84 +684,84 @@
         <v>32</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="4" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B14" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -769,171 +772,182 @@
         <v>32</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>5</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="4" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>6</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <v>8</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>10</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>3</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>11</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>13</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="4" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>14</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>15</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
